--- a/minimax_alpha_beta_heuristic.xlsx
+++ b/minimax_alpha_beta_heuristic.xlsx
@@ -217,24 +217,33 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet!$A$2:$A$6</c:f>
+              <c:f>Sheet!$A$2:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>22</c:v>
+                  <c:v>513</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>638</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>672</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>471</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>368</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>529</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>606</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -242,7 +251,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-ED73-4774-B888-17C4CCA63239}"/>
+              <c16:uniqueId val="{00000000-0CB8-498A-A4BB-205A396A304B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -256,11 +265,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="247686415"/>
-        <c:axId val="209303151"/>
+        <c:axId val="1584435552"/>
+        <c:axId val="1584436800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="247686415"/>
+        <c:axId val="1584435552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -302,7 +311,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209303151"/>
+        <c:crossAx val="1584436800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -310,7 +319,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="209303151"/>
+        <c:axId val="1584436800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -361,7 +370,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247686415"/>
+        <c:crossAx val="1584435552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -466,11 +475,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet!$B$1</c:f>
+              <c:f>Sheet!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Thời gian</c:v>
+                  <c:v>Số Node</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -487,26 +496,94 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet!$B$2:$B$6</c:f>
+              <c:f>Sheet!$A$2:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1.7950296401977539E-2</c:v>
+                  <c:v>513</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.8998861312866211E-2</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7983198165893551E-2</c:v>
+                  <c:v>638</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.0003528594970703E-3</c:v>
+                  <c:v>672</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.9921226501464844E-4</c:v>
+                  <c:v>471</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>368</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>529</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>606</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -514,7 +591,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4D5D-48CD-9D0A-BD2747715787}"/>
+              <c16:uniqueId val="{00000000-8D5A-44D6-B801-FC4BEAA236D1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -527,11 +604,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="247691407"/>
-        <c:axId val="247691823"/>
+        <c:axId val="1528086400"/>
+        <c:axId val="1528088896"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="247691407"/>
+        <c:axId val="1528086400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -573,7 +650,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247691823"/>
+        <c:crossAx val="1528088896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -581,7 +658,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="247691823"/>
+        <c:axId val="1528088896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -632,7 +709,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247691407"/>
+        <c:crossAx val="1528086400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1797,16 +1874,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1827,16 +1904,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2143,10 +2220,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2161,42 +2238,66 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>22</v>
+        <v>513</v>
       </c>
       <c r="B2">
-        <v>1.7950296401977539E-2</v>
+        <v>0.21791982650756839</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>16</v>
+        <v>210</v>
       </c>
       <c r="B3">
-        <v>1.8998861312866211E-2</v>
+        <v>0.15469551086425781</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>10</v>
+        <v>638</v>
       </c>
       <c r="B4">
-        <v>1.7983198165893551E-2</v>
+        <v>0.29301261901855469</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>672</v>
       </c>
       <c r="B5">
-        <v>5.0003528594970703E-3</v>
+        <v>0.34571099281311041</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>4</v>
+        <v>471</v>
       </c>
       <c r="B6">
-        <v>9.9921226501464844E-4</v>
+        <v>0.2715449333190918</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>368</v>
+      </c>
+      <c r="B7">
+        <v>0.25564789772033691</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>529</v>
+      </c>
+      <c r="B8">
+        <v>0.37275576591491699</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>606</v>
+      </c>
+      <c r="B9">
+        <v>0.33280014991760248</v>
       </c>
     </row>
   </sheetData>
